--- a/xlsx/5号州际公路加利福尼亚州段_intext.xlsx
+++ b/xlsx/5号州际公路加利福尼亚州段_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>美墨邊境</t>
+    <t>美墨边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/8%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>8號州際公路</t>
+    <t>8号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/52%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E8%BC%94%E5%8A%A9%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州際公路輔助線列表</t>
+    <t>美国州际公路辅助线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/205%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>205號州際公路 (加利福尼亞州)</t>
+    <t>205号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/505%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>505號州際公路</t>
+    <t>505号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
